--- a/data_test_without_type.xlsx
+++ b/data_test_without_type.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\volantis\v-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\volantis\v-data\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB6BEE5-8860-40CF-A18A-0C9DFF47D7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728805B-2556-4653-A3B3-5277671F2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>mikel@essien.com</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -432,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31105D62-190F-4261-98E5-0A270483235F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +456,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>121</v>
       </c>
@@ -467,8 +473,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1234.3399999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>122</v>
       </c>
@@ -481,8 +490,11 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>1212.23</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>123</v>
       </c>
@@ -492,8 +504,11 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4">
+        <v>4343.0200000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>124</v>
       </c>
@@ -505,6 +520,9 @@
       </c>
       <c r="D5" t="b">
         <v>1</v>
+      </c>
+      <c r="E5">
+        <v>344.94</v>
       </c>
     </row>
   </sheetData>

--- a/data_test_without_type.xlsx
+++ b/data_test_without_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\volantis\v-data\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728805B-2556-4653-A3B3-5277671F2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53329FEF-50A7-4B2D-A5ED-35A844159CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>balance</t>
+  </si>
+  <si>
+    <t>created_at</t>
   </si>
 </sst>
 </file>
@@ -117,9 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31105D62-190F-4261-98E5-0A270483235F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +463,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>121</v>
       </c>
@@ -476,8 +483,11 @@
       <c r="E2">
         <v>1234.3399999999999</v>
       </c>
+      <c r="F2" s="2">
+        <v>45325</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>122</v>
       </c>
@@ -493,8 +503,11 @@
       <c r="E3">
         <v>1212.23</v>
       </c>
+      <c r="F3" s="2">
+        <v>45326</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>123</v>
       </c>
@@ -507,8 +520,11 @@
       <c r="E4">
         <v>4343.0200000000004</v>
       </c>
+      <c r="F4" s="2">
+        <v>45327</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>124</v>
       </c>
@@ -523,6 +539,9 @@
       </c>
       <c r="E5">
         <v>344.94</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45328</v>
       </c>
     </row>
   </sheetData>

--- a/data_test_without_type.xlsx
+++ b/data_test_without_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\volantis\v-data\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53329FEF-50A7-4B2D-A5ED-35A844159CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92E32A-44D8-4552-908B-093766AC273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
   </si>
 </sst>
 </file>
@@ -120,10 +123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,15 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31105D62-190F-4261-98E5-0A270483235F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +473,11 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>121</v>
       </c>
@@ -486,8 +496,12 @@
       <c r="F2" s="2">
         <v>45325</v>
       </c>
+      <c r="G2" s="3">
+        <f ca="1">NOW()</f>
+        <v>45406.489142824073</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>122</v>
       </c>
@@ -506,8 +520,12 @@
       <c r="F3" s="2">
         <v>45326</v>
       </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G5" ca="1" si="0">NOW()</f>
+        <v>45406.489142824073</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>123</v>
       </c>
@@ -523,8 +541,12 @@
       <c r="F4" s="2">
         <v>45327</v>
       </c>
+      <c r="G4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45406.489142824073</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>124</v>
       </c>
@@ -542,6 +564,10 @@
       </c>
       <c r="F5" s="2">
         <v>45328</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45406.489142824073</v>
       </c>
     </row>
   </sheetData>
@@ -552,5 +578,6 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{3B62D15C-C869-42D5-AD65-AAD424925FE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data_test_without_type.xlsx
+++ b/data_test_without_type.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\volantis\v-data\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92E32A-44D8-4552-908B-093766AC273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07CFE5-5614-49D5-A5A6-44013D98B756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +80,30 @@
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>fruits</t>
   </si>
 </sst>
 </file>
@@ -445,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31105D62-190F-4261-98E5-0A270483235F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +523,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">NOW()</f>
-        <v>45406.489142824073</v>
+        <v>45406.495246874998</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -522,7 +547,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G5" ca="1" si="0">NOW()</f>
-        <v>45406.489142824073</v>
+        <v>45406.495246874998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -543,7 +568,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45406.489142824073</v>
+        <v>45406.495246874998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -567,7 +592,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45406.489142824073</v>
+        <v>45406.495246874998</v>
       </c>
     </row>
   </sheetData>
@@ -580,4 +605,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87CAF03-E713-46DA-A6FC-0FDF382911E4}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>4500.01</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2000.01</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>10000.01</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_test_without_type.xlsx
+++ b/data_test_without_type.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\volantis\v-data\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07CFE5-5614-49D5-A5A6-44013D98B756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA466A-4AB0-43F1-B840-F9465AAC85DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="2" xr2:uid="{148D773F-6384-46AB-9FED-C79E430025DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +105,15 @@
   </si>
   <si>
     <t>fruits</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>manggo</t>
   </si>
 </sst>
 </file>
@@ -523,7 +533,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">NOW()</f>
-        <v>45406.495246874998</v>
+        <v>45406.66830798611</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -547,7 +557,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G5" ca="1" si="0">NOW()</f>
-        <v>45406.495246874998</v>
+        <v>45406.66830798611</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -568,7 +578,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45406.495246874998</v>
+        <v>45406.66830798611</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -592,7 +602,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45406.495246874998</v>
+        <v>45406.66830798611</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87CAF03-E713-46DA-A6FC-0FDF382911E4}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -688,4 +698,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0631B5E2-FA5F-4600-8351-268362040272}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>4500</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>7500</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">C3*D3</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>6000</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>